--- a/Excel/buildUnitInit.xlsx
+++ b/Excel/buildUnitInit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8A87D7-D1AF-4F31-B697-AECAB876C442}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D760E45B-6D79-4E5A-9183-01B45D65177E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>map001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isMainBuild</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +403,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -419,8 +426,11 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -437,6 +447,9 @@
         <v>15</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>

--- a/Excel/buildUnitInit.xlsx
+++ b/Excel/buildUnitInit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D760E45B-6D79-4E5A-9183-01B45D65177E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DD26A0-0E65-41E7-B308-6C16973DD086}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:L17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -418,10 +418,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -441,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>1</v>
